--- a/data/trans_orig/P43A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36156F95-F3E4-4C16-92BA-20C4D7066C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A94A81F6-60B7-4FB6-AE49-80FF8806DFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{30CCF808-72AF-4742-9F1D-88EAC8383A8B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{03ACE42C-93BA-49BA-BC5F-5A879E5652FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -83,7 +83,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>19,99%</t>
+    <t>18,84%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,1000 +92,1000 @@
     <t>33,14%</t>
   </si>
   <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>Entre 6 meses y 1 años</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>Hace menos de 6 meses</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>Entre 6 meses y 1 años</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2015 (Tasa respuesta: 24,27%)</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
   </si>
   <si>
     <t>49,82%</t>
   </si>
   <si>
-    <t>Hace menos de 6 meses</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2015 (Tasa respuesta: 24,27%)</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
     <t>21,49%</t>
   </si>
   <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0403406B-8162-439C-A80B-A62FB63F5C8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF4C288-12A9-46EA-A795-F7525F1AB75F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3269,7 +3269,7 @@
         <v>103</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="M37" s="7">
         <v>215</v>
@@ -3284,7 +3284,7 @@
         <v>103</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,7 +3338,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3360,7 +3360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47CDD82-A3A7-4200-A0F4-A9F4FB68AEBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA4D6EA-0493-40E3-9229-C584C5C1CC59}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3377,7 +3377,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3497,13 +3497,13 @@
         <v>3043</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3512,13 +3512,13 @@
         <v>3043</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3546,13 @@
         <v>5430</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3561,13 +3561,13 @@
         <v>5430</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3595,13 @@
         <v>10086</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -3610,13 +3610,13 @@
         <v>10086</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3644,13 @@
         <v>8828</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3659,13 +3659,13 @@
         <v>8828</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3744,13 @@
         <v>12636</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -3759,13 +3759,13 @@
         <v>12636</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3793,13 @@
         <v>30175</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3808,13 +3808,13 @@
         <v>30175</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,10 +3845,10 @@
         <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -3860,10 +3860,10 @@
         <v>124</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3891,13 @@
         <v>11639</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -3906,13 +3906,13 @@
         <v>11639</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +3991,13 @@
         <v>49543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -4006,13 +4006,13 @@
         <v>49543</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4040,13 @@
         <v>80482</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="M15" s="7">
         <v>76</v>
@@ -4055,13 +4055,13 @@
         <v>80482</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4089,13 @@
         <v>57798</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -4104,13 +4104,13 @@
         <v>57798</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4138,13 @@
         <v>47559</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -4153,13 +4153,13 @@
         <v>47559</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4238,13 @@
         <v>44530</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -4253,13 +4253,13 @@
         <v>44530</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4287,13 @@
         <v>158456</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -4302,13 +4302,13 @@
         <v>158456</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4336,13 @@
         <v>137413</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M21" s="7">
         <v>123</v>
@@ -4351,13 +4351,13 @@
         <v>137413</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4385,13 @@
         <v>70114</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -4400,13 +4400,13 @@
         <v>70114</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4485,13 @@
         <v>17461</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -4500,13 +4500,13 @@
         <v>17461</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +4534,13 @@
         <v>198532</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>180</v>
@@ -4549,13 +4549,13 @@
         <v>198532</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4583,13 @@
         <v>122352</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M26" s="7">
         <v>112</v>
@@ -4598,13 +4598,13 @@
         <v>122352</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4632,13 @@
         <v>69742</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M27" s="7">
         <v>62</v>
@@ -4647,13 +4647,13 @@
         <v>69742</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4732,13 @@
         <v>214859</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M29" s="7">
         <v>201</v>
@@ -4747,13 +4747,13 @@
         <v>214859</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,13 +4781,13 @@
         <v>164078</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M30" s="7">
         <v>156</v>
@@ -4796,13 +4796,13 @@
         <v>164078</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4830,13 @@
         <v>92322</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M31" s="7">
         <v>89</v>
@@ -4845,13 +4845,13 @@
         <v>92322</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4879,13 @@
         <v>33561</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M32" s="7">
         <v>32</v>
@@ -4894,13 +4894,13 @@
         <v>33561</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4979,13 @@
         <v>342072</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M34" s="7">
         <v>312</v>
@@ -4994,13 +4994,13 @@
         <v>342072</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5028,13 @@
         <v>637154</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M35" s="7">
         <v>583</v>
@@ -5043,13 +5043,13 @@
         <v>637154</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,10 +5077,10 @@
         <v>443451</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>184</v>
@@ -5092,10 +5092,10 @@
         <v>443451</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>184</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -5223,7 +5223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5BE786-E590-4D78-B261-99550F14FF54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1730CE-8721-4BD2-8821-45F0059FE536}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5507,13 +5507,13 @@
         <v>2770</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5522,13 +5522,13 @@
         <v>2770</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5607,13 @@
         <v>12027</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -5622,13 +5622,13 @@
         <v>12027</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +5656,13 @@
         <v>30683</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -5671,13 +5671,13 @@
         <v>30683</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5705,13 @@
         <v>22949</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -5720,13 +5720,13 @@
         <v>22949</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5754,13 @@
         <v>9642</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -5769,13 +5769,13 @@
         <v>9642</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5854,13 @@
         <v>41426</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -5869,13 +5869,13 @@
         <v>41426</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +5903,13 @@
         <v>85615</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M15" s="7">
         <v>88</v>
@@ -5918,13 +5918,13 @@
         <v>85615</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5952,13 @@
         <v>70313</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -5967,13 +5967,13 @@
         <v>70313</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6001,13 +6001,13 @@
         <v>28702</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -6016,13 +6016,13 @@
         <v>28702</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6101,13 @@
         <v>53571</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -6116,13 +6116,13 @@
         <v>53571</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,13 +6150,13 @@
         <v>185540</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>173</v>
@@ -6165,13 +6165,13 @@
         <v>185540</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6199,13 @@
         <v>121350</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M21" s="7">
         <v>112</v>
@@ -6214,13 +6214,13 @@
         <v>121350</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6248,13 +6248,13 @@
         <v>66966</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -6263,13 +6263,13 @@
         <v>66966</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,13 +6348,13 @@
         <v>62966</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
@@ -6363,13 +6363,13 @@
         <v>62966</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,13 +6397,13 @@
         <v>216741</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M25" s="7">
         <v>189</v>
@@ -6412,13 +6412,13 @@
         <v>216741</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,13 +6446,13 @@
         <v>105298</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M26" s="7">
         <v>92</v>
@@ -6461,13 +6461,13 @@
         <v>105298</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,13 +6495,13 @@
         <v>61846</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M27" s="7">
         <v>53</v>
@@ -6510,13 +6510,13 @@
         <v>61846</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,13 +6595,13 @@
         <v>258001</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M29" s="7">
         <v>213</v>
@@ -6610,13 +6610,13 @@
         <v>258001</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,13 +6644,13 @@
         <v>177153</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M30" s="7">
         <v>155</v>
@@ -6659,13 +6659,13 @@
         <v>177153</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,13 +6693,13 @@
         <v>84906</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M31" s="7">
         <v>75</v>
@@ -6708,13 +6708,13 @@
         <v>84906</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6742,13 @@
         <v>38983</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M32" s="7">
         <v>36</v>
@@ -6757,13 +6757,13 @@
         <v>38983</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,13 +6842,13 @@
         <v>428991</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M34" s="7">
         <v>376</v>
@@ -6857,13 +6857,13 @@
         <v>428991</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,13 +6891,13 @@
         <v>706027</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>265</v>
+        <v>47</v>
       </c>
       <c r="M35" s="7">
         <v>647</v>
@@ -6906,13 +6906,13 @@
         <v>706027</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>265</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,13 +6940,13 @@
         <v>412300</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>268</v>
+        <v>101</v>
       </c>
       <c r="M36" s="7">
         <v>380</v>
@@ -6955,13 +6955,13 @@
         <v>412300</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>268</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6989,13 +6989,13 @@
         <v>208909</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="M37" s="7">
         <v>191</v>
@@ -7004,13 +7004,13 @@
         <v>208909</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7064,7 +7064,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -7086,7 +7086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D06E67-8B17-4E93-BBD9-1A99DB1805DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B678AF-351F-4657-818A-53A83A827C4D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7103,7 +7103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7223,13 +7223,13 @@
         <v>3416</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -7238,13 +7238,13 @@
         <v>3416</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,13 +7272,13 @@
         <v>9983</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>272</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -7287,13 +7287,13 @@
         <v>9983</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>272</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7321,13 +7321,13 @@
         <v>5960</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -7336,13 +7336,13 @@
         <v>5960</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,13 +7370,13 @@
         <v>4654</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -7385,13 +7385,13 @@
         <v>4654</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,13 +7470,13 @@
         <v>12614</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -7485,13 +7485,13 @@
         <v>12614</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,13 +7519,13 @@
         <v>18110</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -7534,13 +7534,13 @@
         <v>18110</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7568,13 +7568,13 @@
         <v>10452</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -7583,13 +7583,13 @@
         <v>10452</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,13 +7617,13 @@
         <v>12797</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -7632,13 +7632,13 @@
         <v>12797</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7717,13 +7717,13 @@
         <v>39137</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
@@ -7732,13 +7732,13 @@
         <v>39137</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,13 +7766,13 @@
         <v>35398</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M15" s="7">
         <v>55</v>
@@ -7781,13 +7781,13 @@
         <v>35398</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7815,13 +7815,13 @@
         <v>42473</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -7830,13 +7830,13 @@
         <v>42473</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,13 +7864,13 @@
         <v>18184</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -7879,13 +7879,13 @@
         <v>18184</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7964,13 +7964,13 @@
         <v>55709</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>69</v>
@@ -7979,13 +7979,13 @@
         <v>55709</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,13 +8013,13 @@
         <v>97389</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>164</v>
@@ -8028,13 +8028,13 @@
         <v>97389</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,13 +8062,13 @@
         <v>107124</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M21" s="7">
         <v>166</v>
@@ -8077,13 +8077,13 @@
         <v>107124</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8111,13 +8111,13 @@
         <v>63920</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
@@ -8126,13 +8126,13 @@
         <v>63920</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,13 +8211,13 @@
         <v>53250</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -8226,13 +8226,13 @@
         <v>53250</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8260,13 +8260,13 @@
         <v>144197</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M25" s="7">
         <v>252</v>
@@ -8275,13 +8275,13 @@
         <v>144197</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,13 +8309,13 @@
         <v>102948</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M26" s="7">
         <v>177</v>
@@ -8324,13 +8324,13 @@
         <v>102948</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,13 +8358,13 @@
         <v>48101</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M27" s="7">
         <v>82</v>
@@ -8373,13 +8373,13 @@
         <v>48101</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8458,13 +8458,13 @@
         <v>334186</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M29" s="7">
         <v>643</v>
@@ -8473,13 +8473,13 @@
         <v>334186</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8507,13 +8507,13 @@
         <v>257720</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M30" s="7">
         <v>272</v>
@@ -8522,13 +8522,13 @@
         <v>257720</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8556,13 +8556,13 @@
         <v>70078</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M31" s="7">
         <v>127</v>
@@ -8571,13 +8571,13 @@
         <v>70078</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8605,13 +8605,13 @@
         <v>30181</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M32" s="7">
         <v>57</v>
@@ -8620,13 +8620,13 @@
         <v>30181</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8705,10 +8705,10 @@
         <v>498313</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>339</v>
@@ -8720,10 +8720,10 @@
         <v>498313</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>339</v>
@@ -8927,7 +8927,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A94A81F6-60B7-4FB6-AE49-80FF8806DFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ADDE794-926F-4639-B772-DFAF113C4141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{03ACE42C-93BA-49BA-BC5F-5A879E5652FF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F56A191-5749-4E52-80E7-0ED9552043CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="350">
   <si>
     <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2007 (Tasa respuesta: 19,14%)</t>
   </si>
@@ -83,7 +83,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>18,84%</t>
+    <t>18,06%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,10 +92,10 @@
     <t>33,14%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -104,10 +104,10 @@
     <t>31,7%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
@@ -116,10 +116,10 @@
     <t>31,48%</t>
   </si>
   <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,37 +131,37 @@
     <t>22,11%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
   </si>
   <si>
     <t>37,27%</t>
   </si>
   <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
   </si>
   <si>
     <t>20,26%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
   </si>
   <si>
     <t>20,36%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -170,37 +170,37 @@
     <t>18,91%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
   </si>
   <si>
     <t>17,63%</t>
   </si>
   <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -209,739 +209,742 @@
     <t>12,54%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>31,93%</t>
   </si>
   <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
   </si>
   <si>
     <t>30,97%</t>
   </si>
   <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
   </si>
   <si>
     <t>24,56%</t>
   </si>
   <si>
-    <t>19,97%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
   </si>
   <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2016 (Tasa respuesta: 24,27%)</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2015 (Tasa respuesta: 24,27%)</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
+    <t>41,87%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>6,46%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
   <si>
     <t>22,2%</t>
   </si>
   <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>8,94%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
   </si>
   <si>
     <t>19,27%</t>
@@ -1497,7 +1500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF4C288-12A9-46EA-A795-F7525F1AB75F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5A3760-C0E2-4042-AC29-1739849515FD}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3360,7 +3363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA4D6EA-0493-40E3-9229-C584C5C1CC59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CD17B1-F4CB-4781-92CC-07A5F84E8D97}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3497,13 +3500,13 @@
         <v>3043</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3512,13 +3515,13 @@
         <v>3043</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3549,13 @@
         <v>5430</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3561,13 +3564,13 @@
         <v>5430</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3598,13 @@
         <v>10086</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -3610,13 +3613,13 @@
         <v>10086</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3647,13 @@
         <v>8828</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3659,13 +3662,13 @@
         <v>8828</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3747,13 @@
         <v>12636</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -3759,13 +3762,13 @@
         <v>12636</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3796,13 @@
         <v>30175</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3808,13 +3811,13 @@
         <v>30175</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,10 +4046,10 @@
         <v>133</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M15" s="7">
         <v>76</v>
@@ -4058,10 +4061,10 @@
         <v>133</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4092,13 @@
         <v>57798</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -4104,13 +4107,13 @@
         <v>57798</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4141,13 @@
         <v>47559</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -4153,13 +4156,13 @@
         <v>47559</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4241,13 @@
         <v>44530</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -4253,13 +4256,13 @@
         <v>44530</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4290,13 @@
         <v>158456</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -4302,13 +4305,13 @@
         <v>158456</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4339,13 @@
         <v>137413</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M21" s="7">
         <v>123</v>
@@ -4351,13 +4354,13 @@
         <v>137413</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4388,13 @@
         <v>70114</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -4400,13 +4403,13 @@
         <v>70114</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4488,13 @@
         <v>17461</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -4500,13 +4503,13 @@
         <v>17461</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +4537,13 @@
         <v>198532</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>180</v>
@@ -4549,13 +4552,13 @@
         <v>198532</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,7 +4586,7 @@
         <v>122352</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>160</v>
@@ -4598,7 +4601,7 @@
         <v>122352</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>160</v>
@@ -4982,10 +4985,10 @@
         <v>177</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M34" s="7">
         <v>312</v>
@@ -4997,10 +5000,10 @@
         <v>177</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5031,13 @@
         <v>637154</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M35" s="7">
         <v>583</v>
@@ -5043,13 +5046,13 @@
         <v>637154</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,10 +5080,10 @@
         <v>443451</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>184</v>
@@ -5092,10 +5095,10 @@
         <v>443451</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>184</v>
@@ -5223,7 +5226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1730CE-8721-4BD2-8821-45F0059FE536}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5086B217-B984-4E8B-8211-A47CE22F5C5B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5507,13 +5510,13 @@
         <v>2770</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5522,13 +5525,13 @@
         <v>2770</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5610,13 @@
         <v>12027</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -5622,13 +5625,13 @@
         <v>12027</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +5659,13 @@
         <v>30683</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -5671,13 +5674,13 @@
         <v>30683</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5708,13 @@
         <v>22949</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -5720,13 +5723,13 @@
         <v>22949</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5757,13 @@
         <v>9642</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -5769,13 +5772,13 @@
         <v>9642</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5857,13 @@
         <v>41426</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -5869,13 +5872,13 @@
         <v>41426</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +5906,13 @@
         <v>85615</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M15" s="7">
         <v>88</v>
@@ -5918,13 +5921,13 @@
         <v>85615</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5955,13 @@
         <v>70313</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -5967,13 +5970,13 @@
         <v>70313</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6001,13 +6004,13 @@
         <v>28702</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -6016,13 +6019,13 @@
         <v>28702</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6104,13 @@
         <v>53571</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -6116,13 +6119,13 @@
         <v>53571</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,13 +6153,13 @@
         <v>185540</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>173</v>
@@ -6165,13 +6168,13 @@
         <v>185540</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6202,13 @@
         <v>121350</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M21" s="7">
         <v>112</v>
@@ -6214,13 +6217,13 @@
         <v>121350</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6248,13 +6251,13 @@
         <v>66966</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -6263,13 +6266,13 @@
         <v>66966</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,13 +6351,13 @@
         <v>62966</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>235</v>
+        <v>92</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
@@ -6363,13 +6366,13 @@
         <v>62966</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>235</v>
+        <v>92</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,13 +6400,13 @@
         <v>216741</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M25" s="7">
         <v>189</v>
@@ -6412,13 +6415,13 @@
         <v>216741</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,13 +6449,13 @@
         <v>105298</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M26" s="7">
         <v>92</v>
@@ -6461,13 +6464,13 @@
         <v>105298</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,13 +6498,13 @@
         <v>61846</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M27" s="7">
         <v>53</v>
@@ -6510,13 +6513,13 @@
         <v>61846</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,13 +6598,13 @@
         <v>258001</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M29" s="7">
         <v>213</v>
@@ -6610,13 +6613,13 @@
         <v>258001</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,13 +6647,13 @@
         <v>177153</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M30" s="7">
         <v>155</v>
@@ -6659,13 +6662,13 @@
         <v>177153</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,13 +6696,13 @@
         <v>84906</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="M31" s="7">
         <v>75</v>
@@ -6708,13 +6711,13 @@
         <v>84906</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6848,7 +6851,7 @@
         <v>259</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>260</v>
+        <v>108</v>
       </c>
       <c r="M34" s="7">
         <v>376</v>
@@ -6863,7 +6866,7 @@
         <v>259</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>260</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,13 +6894,13 @@
         <v>706027</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M35" s="7">
         <v>647</v>
@@ -6906,13 +6909,13 @@
         <v>706027</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,7 +6949,7 @@
         <v>264</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>101</v>
+        <v>265</v>
       </c>
       <c r="M36" s="7">
         <v>380</v>
@@ -6961,7 +6964,7 @@
         <v>264</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>101</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6989,13 +6992,13 @@
         <v>208909</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="M37" s="7">
         <v>191</v>
@@ -7004,13 +7007,13 @@
         <v>208909</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>267</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,7 +7089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B678AF-351F-4657-818A-53A83A827C4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CF9004-3FF8-4235-AE85-C2A33B95C1C0}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7867,10 +7870,10 @@
         <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -7882,10 +7885,10 @@
         <v>300</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7964,13 +7967,13 @@
         <v>55709</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>69</v>
@@ -7979,13 +7982,13 @@
         <v>55709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,13 +8016,13 @@
         <v>97389</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M20" s="7">
         <v>164</v>
@@ -8028,13 +8031,13 @@
         <v>97389</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,13 +8065,13 @@
         <v>107124</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M21" s="7">
         <v>166</v>
@@ -8077,13 +8080,13 @@
         <v>107124</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8111,10 +8114,10 @@
         <v>63920</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>279</v>
@@ -8126,10 +8129,10 @@
         <v>63920</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>279</v>
@@ -8211,13 +8214,13 @@
         <v>53250</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -8226,13 +8229,13 @@
         <v>53250</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8260,13 +8263,13 @@
         <v>144197</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M25" s="7">
         <v>252</v>
@@ -8275,13 +8278,13 @@
         <v>144197</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,13 +8312,13 @@
         <v>102948</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M26" s="7">
         <v>177</v>
@@ -8324,13 +8327,13 @@
         <v>102948</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,13 +8361,13 @@
         <v>48101</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M27" s="7">
         <v>82</v>
@@ -8373,13 +8376,13 @@
         <v>48101</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8458,13 +8461,13 @@
         <v>334186</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M29" s="7">
         <v>643</v>
@@ -8473,13 +8476,13 @@
         <v>334186</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8507,13 +8510,13 @@
         <v>257720</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M30" s="7">
         <v>272</v>
@@ -8522,13 +8525,13 @@
         <v>257720</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8556,13 +8559,13 @@
         <v>70078</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M31" s="7">
         <v>127</v>
@@ -8571,13 +8574,13 @@
         <v>70078</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8605,13 +8608,13 @@
         <v>30181</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M32" s="7">
         <v>57</v>
@@ -8620,13 +8623,13 @@
         <v>30181</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8705,13 +8708,13 @@
         <v>498313</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M34" s="7">
         <v>867</v>
@@ -8720,13 +8723,13 @@
         <v>498313</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8754,13 +8757,13 @@
         <v>562797</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M35" s="7">
         <v>765</v>
@@ -8769,13 +8772,13 @@
         <v>562797</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8803,13 +8806,13 @@
         <v>339034</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M36" s="7">
         <v>548</v>
@@ -8818,13 +8821,13 @@
         <v>339034</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8852,13 +8855,13 @@
         <v>177837</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M37" s="7">
         <v>279</v>
@@ -8867,13 +8870,13 @@
         <v>177837</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ADDE794-926F-4639-B772-DFAF113C4141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3947925E-D832-4FFB-BBA6-856C7F25F11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F56A191-5749-4E52-80E7-0ED9552043CA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37FA70E8-9323-41BA-9D8D-A95FE802ADED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="349">
   <si>
     <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2007 (Tasa respuesta: 19,14%)</t>
   </si>
@@ -83,7 +83,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>18,06%</t>
+    <t>19,99%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,10 +92,10 @@
     <t>33,14%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -104,10 +104,10 @@
     <t>31,7%</t>
   </si>
   <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
@@ -116,10 +116,10 @@
     <t>31,48%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,37 +131,37 @@
     <t>22,11%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
   </si>
   <si>
     <t>37,27%</t>
   </si>
   <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
   </si>
   <si>
     <t>20,26%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
   </si>
   <si>
     <t>20,36%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -170,925 +170,922 @@
     <t>18,91%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
   </si>
   <si>
     <t>17,63%</t>
   </si>
   <si>
-    <t>12,63%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2016 (Tasa respuesta: 24,27%)</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
   </si>
   <si>
     <t>23,44%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2016 (Tasa respuesta: 24,27%)</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
     <t>15,28%</t>
   </si>
   <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
+    <t>18,25%</t>
   </si>
   <si>
     <t>41,38%</t>
   </si>
   <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
   </si>
   <si>
     <t>29,54%</t>
   </si>
   <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
   </si>
   <si>
     <t>13,8%</t>
   </si>
   <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
   </si>
   <si>
     <t>48,28%</t>
   </si>
   <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
   </si>
   <si>
     <t>37,23%</t>
   </si>
   <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
   </si>
   <si>
     <t>10,12%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
+    <t>12,77%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
   </si>
   <si>
     <t>31,58%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
+    <t>34,72%</t>
   </si>
   <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
   </si>
   <si>
     <t>21,49%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5A3760-C0E2-4042-AC29-1739849515FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCDF7BC-6D42-4D34-9BAA-B2D9559D4064}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3272,7 +3269,7 @@
         <v>103</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="M37" s="7">
         <v>215</v>
@@ -3287,7 +3284,7 @@
         <v>103</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,7 +3338,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3363,7 +3360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CD17B1-F4CB-4781-92CC-07A5F84E8D97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8F472B-82AF-4BBC-A1D2-B3D3879229C1}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3380,7 +3377,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3500,7 +3497,7 @@
         <v>3043</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>107</v>
@@ -3515,7 +3512,7 @@
         <v>3043</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>107</v>
@@ -3848,10 +3845,10 @@
         <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -3863,10 +3860,10 @@
         <v>124</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3891,13 @@
         <v>11639</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -3909,13 +3906,13 @@
         <v>11639</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +3991,13 @@
         <v>49543</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -4009,13 +4006,13 @@
         <v>49543</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4040,13 @@
         <v>80482</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="L15" s="7" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="M15" s="7">
         <v>76</v>
@@ -4058,13 +4055,13 @@
         <v>80482</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P15" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="Q15" s="7" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4089,13 @@
         <v>57798</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -4107,13 +4104,13 @@
         <v>57798</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4138,13 @@
         <v>47559</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -4156,13 +4153,13 @@
         <v>47559</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4238,13 @@
         <v>44530</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -4256,13 +4253,13 @@
         <v>44530</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4287,13 @@
         <v>158456</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -4305,13 +4302,13 @@
         <v>158456</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4336,13 @@
         <v>137413</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>123</v>
@@ -4354,13 +4351,13 @@
         <v>137413</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4385,13 @@
         <v>70114</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -4403,13 +4400,13 @@
         <v>70114</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4485,13 @@
         <v>17461</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -4503,13 +4500,13 @@
         <v>17461</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,13 +4534,13 @@
         <v>198532</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>180</v>
@@ -4552,13 +4549,13 @@
         <v>198532</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +4583,13 @@
         <v>122352</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M26" s="7">
         <v>112</v>
@@ -4601,13 +4598,13 @@
         <v>122352</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4632,13 @@
         <v>69742</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M27" s="7">
         <v>62</v>
@@ -4650,13 +4647,13 @@
         <v>69742</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4732,13 @@
         <v>214859</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M29" s="7">
         <v>201</v>
@@ -4750,13 +4747,13 @@
         <v>214859</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,13 +4781,13 @@
         <v>164078</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M30" s="7">
         <v>156</v>
@@ -4799,13 +4796,13 @@
         <v>164078</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,13 +4830,13 @@
         <v>92322</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M31" s="7">
         <v>89</v>
@@ -4848,13 +4845,13 @@
         <v>92322</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4879,13 @@
         <v>33561</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M32" s="7">
         <v>32</v>
@@ -4897,13 +4894,13 @@
         <v>33561</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,10 +4979,10 @@
         <v>342072</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>178</v>
@@ -4997,10 +4994,10 @@
         <v>342072</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>178</v>
@@ -5204,7 +5201,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5226,7 +5223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5086B217-B984-4E8B-8211-A47CE22F5C5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B399361A-8F8C-41C7-9F44-CBA63F73247C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6354,10 +6351,10 @@
         <v>236</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>92</v>
+        <v>237</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
@@ -6369,10 +6366,10 @@
         <v>236</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>92</v>
+        <v>237</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,13 +6397,13 @@
         <v>216741</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M25" s="7">
         <v>189</v>
@@ -6415,13 +6412,13 @@
         <v>216741</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,13 +6446,13 @@
         <v>105298</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M26" s="7">
         <v>92</v>
@@ -6464,13 +6461,13 @@
         <v>105298</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,13 +6495,13 @@
         <v>61846</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M27" s="7">
         <v>53</v>
@@ -6513,13 +6510,13 @@
         <v>61846</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,13 +6595,13 @@
         <v>258001</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M29" s="7">
         <v>213</v>
@@ -6613,13 +6610,13 @@
         <v>258001</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,13 +6644,13 @@
         <v>177153</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M30" s="7">
         <v>155</v>
@@ -6662,13 +6659,13 @@
         <v>177153</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6696,13 +6693,13 @@
         <v>84906</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="M31" s="7">
         <v>75</v>
@@ -6711,13 +6708,13 @@
         <v>84906</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6742,13 @@
         <v>38983</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M32" s="7">
         <v>36</v>
@@ -6760,13 +6757,13 @@
         <v>38983</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,13 +6842,13 @@
         <v>428991</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>108</v>
+        <v>262</v>
       </c>
       <c r="M34" s="7">
         <v>376</v>
@@ -6860,13 +6857,13 @@
         <v>428991</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>108</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,13 +6891,13 @@
         <v>706027</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M35" s="7">
         <v>647</v>
@@ -6909,13 +6906,13 @@
         <v>706027</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,13 +6940,13 @@
         <v>412300</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M36" s="7">
         <v>380</v>
@@ -6958,13 +6955,13 @@
         <v>412300</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,13 +6989,13 @@
         <v>208909</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="M37" s="7">
         <v>191</v>
@@ -7007,13 +7004,13 @@
         <v>208909</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,7 +7064,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -7089,7 +7086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CF9004-3FF8-4235-AE85-C2A33B95C1C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADB1417-4143-4A50-8921-8DA9B4C0C6F3}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7106,7 +7103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7226,13 +7223,13 @@
         <v>3416</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -7241,13 +7238,13 @@
         <v>3416</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7275,13 +7272,13 @@
         <v>9983</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>272</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -7290,13 +7287,13 @@
         <v>9983</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>272</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,13 +7321,13 @@
         <v>5960</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -7339,13 +7336,13 @@
         <v>5960</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7370,13 @@
         <v>4654</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -7388,13 +7385,13 @@
         <v>4654</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7473,13 +7470,13 @@
         <v>12614</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -7488,13 +7485,13 @@
         <v>12614</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7519,13 @@
         <v>18110</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -7537,13 +7534,13 @@
         <v>18110</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7571,13 +7568,13 @@
         <v>10452</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -7586,13 +7583,13 @@
         <v>10452</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,13 +7617,13 @@
         <v>12797</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -7635,13 +7632,13 @@
         <v>12797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7720,13 +7717,13 @@
         <v>39137</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
@@ -7735,13 +7732,13 @@
         <v>39137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,13 +7766,13 @@
         <v>35398</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M15" s="7">
         <v>55</v>
@@ -7784,13 +7781,13 @@
         <v>35398</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7818,13 +7815,13 @@
         <v>42473</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -7833,13 +7830,13 @@
         <v>42473</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7867,13 +7864,13 @@
         <v>18184</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -7882,13 +7879,13 @@
         <v>18184</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7967,13 +7964,13 @@
         <v>55709</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>69</v>
@@ -7982,13 +7979,13 @@
         <v>55709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,13 +8013,13 @@
         <v>97389</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>164</v>
@@ -8031,13 +8028,13 @@
         <v>97389</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8062,13 @@
         <v>107124</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M21" s="7">
         <v>166</v>
@@ -8080,13 +8077,13 @@
         <v>107124</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8114,13 +8111,13 @@
         <v>63920</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
@@ -8129,13 +8126,13 @@
         <v>63920</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,13 +8211,13 @@
         <v>53250</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -8229,13 +8226,13 @@
         <v>53250</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8263,13 +8260,13 @@
         <v>144197</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M25" s="7">
         <v>252</v>
@@ -8278,13 +8275,13 @@
         <v>144197</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8312,13 +8309,13 @@
         <v>102948</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M26" s="7">
         <v>177</v>
@@ -8327,13 +8324,13 @@
         <v>102948</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8361,13 +8358,13 @@
         <v>48101</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M27" s="7">
         <v>82</v>
@@ -8376,13 +8373,13 @@
         <v>48101</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8461,13 +8458,13 @@
         <v>334186</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M29" s="7">
         <v>643</v>
@@ -8476,13 +8473,13 @@
         <v>334186</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8510,13 +8507,13 @@
         <v>257720</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M30" s="7">
         <v>272</v>
@@ -8525,13 +8522,13 @@
         <v>257720</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8559,10 +8556,10 @@
         <v>70078</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>334</v>
@@ -8574,10 +8571,10 @@
         <v>70078</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>334</v>
@@ -8711,10 +8708,10 @@
         <v>338</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M34" s="7">
         <v>867</v>
@@ -8726,10 +8723,10 @@
         <v>338</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8757,13 +8754,13 @@
         <v>562797</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M35" s="7">
         <v>765</v>
@@ -8772,13 +8769,13 @@
         <v>562797</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8806,13 +8803,13 @@
         <v>339034</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M36" s="7">
         <v>548</v>
@@ -8821,13 +8818,13 @@
         <v>339034</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8855,13 +8852,13 @@
         <v>177837</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M37" s="7">
         <v>279</v>
@@ -8870,13 +8867,13 @@
         <v>177837</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8930,7 +8927,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3947925E-D832-4FFB-BBA6-856C7F25F11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{950DBC9B-456B-4EA0-866B-4BD816D12542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37FA70E8-9323-41BA-9D8D-A95FE802ADED}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{85830D84-7292-44BB-A9D9-B00DD6C46674}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="393">
   <si>
     <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2007 (Tasa respuesta: 19,14%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Hace 3 o más años</t>
@@ -125,7 +125,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>22,11%</t>
@@ -164,7 +164,7 @@
     <t>31,6%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>18,91%</t>
@@ -203,7 +203,7 @@
     <t>23,42%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>12,54%</t>
@@ -242,7 +242,7 @@
     <t>29,65%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>14,99%</t>
@@ -281,811 +281,943 @@
     <t>22,15%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2016 (Tasa respuesta: 24,27%)</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>23,24%</t>
   </si>
   <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2016 (Tasa respuesta: 24,27%)</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
   </si>
 </sst>
 </file>
@@ -1497,8 +1629,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCDF7BC-6D42-4D34-9BAA-B2D9559D4064}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767203F8-9492-41E3-9668-CD6A89BD9C35}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2863,10 +2995,10 @@
         <v>11</v>
       </c>
       <c r="H29" s="7">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="I29" s="7">
-        <v>156535</v>
+        <v>91608</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>81</v>
@@ -2878,10 +3010,10 @@
         <v>83</v>
       </c>
       <c r="M29" s="7">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="N29" s="7">
-        <v>156535</v>
+        <v>91608</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>81</v>
@@ -2912,10 +3044,10 @@
         <v>11</v>
       </c>
       <c r="H30" s="7">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I30" s="7">
-        <v>86989</v>
+        <v>68078</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>84</v>
@@ -2927,10 +3059,10 @@
         <v>86</v>
       </c>
       <c r="M30" s="7">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="N30" s="7">
-        <v>86989</v>
+        <v>68078</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>84</v>
@@ -2961,10 +3093,10 @@
         <v>11</v>
       </c>
       <c r="H31" s="7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I31" s="7">
-        <v>42447</v>
+        <v>36711</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>87</v>
@@ -2976,10 +3108,10 @@
         <v>89</v>
       </c>
       <c r="M31" s="7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N31" s="7">
-        <v>42447</v>
+        <v>36711</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>87</v>
@@ -3010,10 +3142,10 @@
         <v>11</v>
       </c>
       <c r="H32" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I32" s="7">
-        <v>23646</v>
+        <v>17868</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>90</v>
@@ -3025,10 +3157,10 @@
         <v>92</v>
       </c>
       <c r="M32" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N32" s="7">
-        <v>23646</v>
+        <v>17868</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>90</v>
@@ -3059,10 +3191,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="7">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="I33" s="7">
-        <v>309617</v>
+        <v>214266</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>27</v>
@@ -3074,10 +3206,10 @@
         <v>27</v>
       </c>
       <c r="M33" s="7">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="N33" s="7">
-        <v>309617</v>
+        <v>214266</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>27</v>
@@ -3091,7 +3223,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3110,34 +3242,34 @@
         <v>11</v>
       </c>
       <c r="H34" s="7">
-        <v>294</v>
+        <v>56</v>
       </c>
       <c r="I34" s="7">
-        <v>304148</v>
+        <v>64927</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" s="7">
+        <v>56</v>
+      </c>
+      <c r="N34" s="7">
+        <v>64927</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M34" s="7">
-        <v>294</v>
-      </c>
-      <c r="N34" s="7">
-        <v>304148</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,34 +3291,34 @@
         <v>11</v>
       </c>
       <c r="H35" s="7">
-        <v>442</v>
+        <v>17</v>
       </c>
       <c r="I35" s="7">
-        <v>448321</v>
+        <v>18911</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M35" s="7">
+        <v>17</v>
+      </c>
+      <c r="N35" s="7">
+        <v>18911</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M35" s="7">
-        <v>442</v>
-      </c>
-      <c r="N35" s="7">
-        <v>448321</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,34 +3340,34 @@
         <v>11</v>
       </c>
       <c r="H36" s="7">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="I36" s="7">
-        <v>295289</v>
+        <v>5736</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M36" s="7">
+        <v>6</v>
+      </c>
+      <c r="N36" s="7">
+        <v>5736</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M36" s="7">
-        <v>295</v>
-      </c>
-      <c r="N36" s="7">
-        <v>295289</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="Q36" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,34 +3389,34 @@
         <v>11</v>
       </c>
       <c r="H37" s="7">
-        <v>215</v>
+        <v>5</v>
       </c>
       <c r="I37" s="7">
-        <v>219736</v>
+        <v>5777</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M37" s="7">
+        <v>5</v>
+      </c>
+      <c r="N37" s="7">
+        <v>5777</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M37" s="7">
-        <v>215</v>
-      </c>
-      <c r="N37" s="7">
-        <v>219736</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="P37" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,48 +3438,296 @@
         <v>11</v>
       </c>
       <c r="H38" s="7">
+        <v>84</v>
+      </c>
+      <c r="I38" s="7">
+        <v>95351</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="7">
+        <v>84</v>
+      </c>
+      <c r="N38" s="7">
+        <v>95351</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="7">
+        <v>294</v>
+      </c>
+      <c r="I39" s="7">
+        <v>304148</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M39" s="7">
+        <v>294</v>
+      </c>
+      <c r="N39" s="7">
+        <v>304148</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="7">
+        <v>442</v>
+      </c>
+      <c r="I40" s="7">
+        <v>448321</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M40" s="7">
+        <v>442</v>
+      </c>
+      <c r="N40" s="7">
+        <v>448321</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="7">
+        <v>295</v>
+      </c>
+      <c r="I41" s="7">
+        <v>295289</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M41" s="7">
+        <v>295</v>
+      </c>
+      <c r="N41" s="7">
+        <v>295289</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="7">
+        <v>215</v>
+      </c>
+      <c r="I42" s="7">
+        <v>219736</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M42" s="7">
+        <v>215</v>
+      </c>
+      <c r="N42" s="7">
+        <v>219736</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="7">
         <v>1246</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1267494</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="7">
         <v>1246</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>1267494</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>104</v>
+      <c r="O43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3360,8 +3740,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8F472B-82AF-4BBC-A1D2-B3D3879229C1}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550A476B-5EB5-43B8-9405-160246A6DDE5}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3377,7 +3757,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3497,13 +3877,13 @@
         <v>3043</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3512,13 +3892,13 @@
         <v>3043</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3926,13 @@
         <v>5430</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3561,13 +3941,13 @@
         <v>5430</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3975,13 @@
         <v>10086</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -3610,13 +3990,13 @@
         <v>10086</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +4024,13 @@
         <v>8828</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3659,13 +4039,13 @@
         <v>8828</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +4124,13 @@
         <v>12636</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -3759,13 +4139,13 @@
         <v>12636</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +4173,13 @@
         <v>30175</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3808,13 +4188,13 @@
         <v>30175</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,13 +4222,13 @@
         <v>23481</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -3857,13 +4237,13 @@
         <v>23481</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +4271,13 @@
         <v>11639</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -3906,13 +4286,13 @@
         <v>11639</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +4371,13 @@
         <v>49543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -4006,13 +4386,13 @@
         <v>49543</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,10 +4420,10 @@
         <v>80482</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>72</v>
@@ -4055,10 +4435,10 @@
         <v>80482</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>72</v>
@@ -4089,13 +4469,13 @@
         <v>57798</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -4104,13 +4484,13 @@
         <v>57798</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4518,13 @@
         <v>47559</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -4153,13 +4533,13 @@
         <v>47559</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4618,13 @@
         <v>44530</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -4253,13 +4633,13 @@
         <v>44530</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4667,13 @@
         <v>158456</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -4302,13 +4682,13 @@
         <v>158456</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4716,13 @@
         <v>137413</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M21" s="7">
         <v>123</v>
@@ -4351,13 +4731,13 @@
         <v>137413</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4765,13 @@
         <v>70114</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -4400,13 +4780,13 @@
         <v>70114</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4865,13 @@
         <v>17461</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -4500,13 +4880,13 @@
         <v>17461</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +4914,13 @@
         <v>198532</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>180</v>
@@ -4549,13 +4929,13 @@
         <v>198532</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4963,13 @@
         <v>122352</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>112</v>
@@ -4598,13 +4978,13 @@
         <v>122352</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +5012,13 @@
         <v>69742</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="M27" s="7">
         <v>62</v>
@@ -4647,13 +5027,13 @@
         <v>69742</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,34 +5106,34 @@
         <v>11</v>
       </c>
       <c r="H29" s="7">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I29" s="7">
-        <v>214859</v>
+        <v>78645</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="M29" s="7">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="N29" s="7">
-        <v>214859</v>
+        <v>78645</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,34 +5155,34 @@
         <v>11</v>
       </c>
       <c r="H30" s="7">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="I30" s="7">
-        <v>164078</v>
+        <v>122675</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="M30" s="7">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="N30" s="7">
-        <v>164078</v>
+        <v>122675</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,34 +5204,34 @@
         <v>11</v>
       </c>
       <c r="H31" s="7">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I31" s="7">
-        <v>92322</v>
+        <v>72236</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="M31" s="7">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="N31" s="7">
-        <v>92322</v>
+        <v>72236</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,34 +5253,34 @@
         <v>11</v>
       </c>
       <c r="H32" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I32" s="7">
-        <v>33561</v>
+        <v>25942</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M32" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N32" s="7">
-        <v>33561</v>
+        <v>25942</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,10 +5302,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="7">
-        <v>478</v>
+        <v>294</v>
       </c>
       <c r="I33" s="7">
-        <v>504820</v>
+        <v>299497</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>27</v>
@@ -4937,10 +5317,10 @@
         <v>27</v>
       </c>
       <c r="M33" s="7">
-        <v>478</v>
+        <v>294</v>
       </c>
       <c r="N33" s="7">
-        <v>504820</v>
+        <v>299497</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>27</v>
@@ -4954,7 +5334,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4973,34 +5353,34 @@
         <v>11</v>
       </c>
       <c r="H34" s="7">
-        <v>312</v>
+        <v>123</v>
       </c>
       <c r="I34" s="7">
-        <v>342072</v>
+        <v>136215</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="M34" s="7">
-        <v>312</v>
+        <v>123</v>
       </c>
       <c r="N34" s="7">
-        <v>342072</v>
+        <v>136215</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,34 +5402,34 @@
         <v>11</v>
       </c>
       <c r="H35" s="7">
-        <v>583</v>
+        <v>36</v>
       </c>
       <c r="I35" s="7">
-        <v>637154</v>
+        <v>41403</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="M35" s="7">
-        <v>583</v>
+        <v>36</v>
       </c>
       <c r="N35" s="7">
-        <v>637154</v>
+        <v>41403</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,34 +5451,34 @@
         <v>11</v>
       </c>
       <c r="H36" s="7">
-        <v>408</v>
+        <v>18</v>
       </c>
       <c r="I36" s="7">
-        <v>443451</v>
+        <v>20086</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M36" s="7">
-        <v>408</v>
+        <v>18</v>
       </c>
       <c r="N36" s="7">
-        <v>443451</v>
+        <v>20086</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,34 +5500,34 @@
         <v>11</v>
       </c>
       <c r="H37" s="7">
-        <v>217</v>
+        <v>7</v>
       </c>
       <c r="I37" s="7">
-        <v>241443</v>
+        <v>7619</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="M37" s="7">
-        <v>217</v>
+        <v>7</v>
       </c>
       <c r="N37" s="7">
-        <v>241443</v>
+        <v>7619</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,48 +5549,296 @@
         <v>11</v>
       </c>
       <c r="H38" s="7">
+        <v>184</v>
+      </c>
+      <c r="I38" s="7">
+        <v>205323</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="7">
+        <v>184</v>
+      </c>
+      <c r="N38" s="7">
+        <v>205323</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="7">
+        <v>312</v>
+      </c>
+      <c r="I39" s="7">
+        <v>342072</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="M39" s="7">
+        <v>312</v>
+      </c>
+      <c r="N39" s="7">
+        <v>342072</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="7">
+        <v>583</v>
+      </c>
+      <c r="I40" s="7">
+        <v>637154</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M40" s="7">
+        <v>583</v>
+      </c>
+      <c r="N40" s="7">
+        <v>637154</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="7">
+        <v>408</v>
+      </c>
+      <c r="I41" s="7">
+        <v>443451</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M41" s="7">
+        <v>408</v>
+      </c>
+      <c r="N41" s="7">
+        <v>443451</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="7">
+        <v>217</v>
+      </c>
+      <c r="I42" s="7">
+        <v>241443</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M42" s="7">
+        <v>217</v>
+      </c>
+      <c r="N42" s="7">
+        <v>241443</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="7">
         <v>1520</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1664120</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="7">
         <v>1520</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>1664120</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>104</v>
+      <c r="O43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5223,8 +5851,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B399361A-8F8C-41C7-9F44-CBA63F73247C}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A2608E-BFFC-46AA-8011-8FDF5B8700D7}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5240,7 +5868,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5360,13 +5988,13 @@
         <v>1001</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5375,13 +6003,13 @@
         <v>1001</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,13 +6037,13 @@
         <v>10296</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -5424,13 +6052,13 @@
         <v>10296</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,13 +6086,13 @@
         <v>7483</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -5473,13 +6101,13 @@
         <v>7483</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +6135,13 @@
         <v>2770</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5522,13 +6150,13 @@
         <v>2770</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +6235,13 @@
         <v>12027</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -5622,13 +6250,13 @@
         <v>12027</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +6284,13 @@
         <v>30683</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -5671,13 +6299,13 @@
         <v>30683</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +6333,13 @@
         <v>22949</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -5720,13 +6348,13 @@
         <v>22949</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +6382,13 @@
         <v>9642</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -5769,13 +6397,13 @@
         <v>9642</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +6482,13 @@
         <v>41426</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -5869,13 +6497,13 @@
         <v>41426</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +6531,13 @@
         <v>85615</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="M15" s="7">
         <v>88</v>
@@ -5918,13 +6546,13 @@
         <v>85615</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +6580,13 @@
         <v>70313</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -5967,13 +6595,13 @@
         <v>70313</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6001,13 +6629,13 @@
         <v>28702</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -6016,13 +6644,13 @@
         <v>28702</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6729,13 @@
         <v>53571</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -6116,13 +6744,13 @@
         <v>53571</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,13 +6778,13 @@
         <v>185540</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="M20" s="7">
         <v>173</v>
@@ -6165,13 +6793,13 @@
         <v>185540</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6827,13 @@
         <v>121350</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="M21" s="7">
         <v>112</v>
@@ -6214,13 +6842,13 @@
         <v>121350</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6248,13 +6876,13 @@
         <v>66966</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -6263,13 +6891,13 @@
         <v>66966</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,13 +6976,13 @@
         <v>62966</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
@@ -6363,13 +6991,13 @@
         <v>62966</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,13 +7025,13 @@
         <v>216741</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="M25" s="7">
         <v>189</v>
@@ -6412,13 +7040,13 @@
         <v>216741</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,13 +7074,13 @@
         <v>105298</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="M26" s="7">
         <v>92</v>
@@ -6461,13 +7089,13 @@
         <v>105298</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,13 +7123,13 @@
         <v>61846</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="M27" s="7">
         <v>53</v>
@@ -6510,13 +7138,13 @@
         <v>61846</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,34 +7217,34 @@
         <v>11</v>
       </c>
       <c r="H29" s="7">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="I29" s="7">
-        <v>258001</v>
+        <v>83229</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="M29" s="7">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="N29" s="7">
-        <v>258001</v>
+        <v>83229</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,34 +7266,34 @@
         <v>11</v>
       </c>
       <c r="H30" s="7">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="I30" s="7">
-        <v>177153</v>
+        <v>136605</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="M30" s="7">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="N30" s="7">
-        <v>177153</v>
+        <v>136605</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,34 +7315,34 @@
         <v>11</v>
       </c>
       <c r="H31" s="7">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I31" s="7">
-        <v>84906</v>
+        <v>65604</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="M31" s="7">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="N31" s="7">
-        <v>84906</v>
+        <v>65604</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,34 +7364,34 @@
         <v>11</v>
       </c>
       <c r="H32" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I32" s="7">
-        <v>38983</v>
+        <v>36634</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="M32" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N32" s="7">
-        <v>38983</v>
+        <v>36634</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,10 +7413,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="7">
-        <v>479</v>
+        <v>301</v>
       </c>
       <c r="I33" s="7">
-        <v>559044</v>
+        <v>322072</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>27</v>
@@ -6800,10 +7428,10 @@
         <v>27</v>
       </c>
       <c r="M33" s="7">
-        <v>479</v>
+        <v>301</v>
       </c>
       <c r="N33" s="7">
-        <v>559044</v>
+        <v>322072</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>27</v>
@@ -6817,7 +7445,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6836,34 +7464,34 @@
         <v>11</v>
       </c>
       <c r="H34" s="7">
-        <v>376</v>
+        <v>133</v>
       </c>
       <c r="I34" s="7">
-        <v>428991</v>
+        <v>174772</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="M34" s="7">
-        <v>376</v>
+        <v>133</v>
       </c>
       <c r="N34" s="7">
-        <v>428991</v>
+        <v>174772</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6885,34 +7513,34 @@
         <v>11</v>
       </c>
       <c r="H35" s="7">
-        <v>647</v>
+        <v>30</v>
       </c>
       <c r="I35" s="7">
-        <v>706027</v>
+        <v>40548</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="M35" s="7">
-        <v>647</v>
+        <v>30</v>
       </c>
       <c r="N35" s="7">
-        <v>706027</v>
+        <v>40548</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6934,34 +7562,34 @@
         <v>11</v>
       </c>
       <c r="H36" s="7">
-        <v>380</v>
+        <v>13</v>
       </c>
       <c r="I36" s="7">
-        <v>412300</v>
+        <v>19302</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="M36" s="7">
-        <v>380</v>
+        <v>13</v>
       </c>
       <c r="N36" s="7">
-        <v>412300</v>
+        <v>19302</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,34 +7611,34 @@
         <v>11</v>
       </c>
       <c r="H37" s="7">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="I37" s="7">
-        <v>208909</v>
+        <v>2350</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>270</v>
+        <v>13</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="M37" s="7">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="N37" s="7">
-        <v>208909</v>
+        <v>2350</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>270</v>
+        <v>13</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7032,48 +7660,296 @@
         <v>11</v>
       </c>
       <c r="H38" s="7">
+        <v>178</v>
+      </c>
+      <c r="I38" s="7">
+        <v>236972</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="7">
+        <v>178</v>
+      </c>
+      <c r="N38" s="7">
+        <v>236972</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="7">
+        <v>376</v>
+      </c>
+      <c r="I39" s="7">
+        <v>428991</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M39" s="7">
+        <v>376</v>
+      </c>
+      <c r="N39" s="7">
+        <v>428991</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="7">
+        <v>647</v>
+      </c>
+      <c r="I40" s="7">
+        <v>706027</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M40" s="7">
+        <v>647</v>
+      </c>
+      <c r="N40" s="7">
+        <v>706027</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="7">
+        <v>380</v>
+      </c>
+      <c r="I41" s="7">
+        <v>412300</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M41" s="7">
+        <v>380</v>
+      </c>
+      <c r="N41" s="7">
+        <v>412300</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="7">
+        <v>191</v>
+      </c>
+      <c r="I42" s="7">
+        <v>208909</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M42" s="7">
+        <v>191</v>
+      </c>
+      <c r="N42" s="7">
+        <v>208909</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="7">
         <v>1594</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1756227</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="7">
         <v>1594</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>1756227</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>104</v>
+      <c r="O43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7086,8 +7962,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADB1417-4143-4A50-8921-8DA9B4C0C6F3}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBFB44F-1E67-440F-9DDA-A60A394D1E91}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7103,7 +7979,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7220,31 +8096,31 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>3416</v>
+        <v>3105</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>3416</v>
+        <v>3105</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,31 +8145,31 @@
         <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>9983</v>
+        <v>9458</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>9983</v>
+        <v>9458</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7318,31 +8194,31 @@
         <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>5960</v>
+        <v>4437</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>5960</v>
+        <v>4437</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,31 +8243,31 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>4654</v>
+        <v>4296</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>279</v>
+        <v>190</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>4654</v>
+        <v>4296</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>279</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7416,7 +8292,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>24013</v>
+        <v>21296</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>27</v>
@@ -7431,7 +8307,7 @@
         <v>12</v>
       </c>
       <c r="N8" s="7">
-        <v>24013</v>
+        <v>21296</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>27</v>
@@ -7467,31 +8343,31 @@
         <v>12</v>
       </c>
       <c r="I9" s="7">
-        <v>12614</v>
+        <v>12060</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
       </c>
       <c r="N9" s="7">
-        <v>12614</v>
+        <v>12060</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,31 +8392,31 @@
         <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>18110</v>
+        <v>16965</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>18110</v>
+        <v>16965</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7565,31 +8441,31 @@
         <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>10452</v>
+        <v>9605</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>10452</v>
+        <v>9605</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,31 +8490,31 @@
         <v>12</v>
       </c>
       <c r="I12" s="7">
-        <v>12797</v>
+        <v>11950</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
       </c>
       <c r="N12" s="7">
-        <v>12797</v>
+        <v>11950</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7663,7 +8539,7 @@
         <v>51</v>
       </c>
       <c r="I13" s="7">
-        <v>53973</v>
+        <v>50580</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>27</v>
@@ -7678,7 +8554,7 @@
         <v>51</v>
       </c>
       <c r="N13" s="7">
-        <v>53973</v>
+        <v>50580</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>27</v>
@@ -7714,31 +8590,31 @@
         <v>55</v>
       </c>
       <c r="I14" s="7">
-        <v>39137</v>
+        <v>37298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
       </c>
       <c r="N14" s="7">
-        <v>39137</v>
+        <v>37298</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,31 +8639,31 @@
         <v>55</v>
       </c>
       <c r="I15" s="7">
-        <v>35398</v>
+        <v>33282</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="M15" s="7">
         <v>55</v>
       </c>
       <c r="N15" s="7">
-        <v>35398</v>
+        <v>33282</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7812,31 +8688,31 @@
         <v>65</v>
       </c>
       <c r="I16" s="7">
-        <v>42473</v>
+        <v>38834</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
       </c>
       <c r="N16" s="7">
-        <v>42473</v>
+        <v>38834</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7861,31 +8737,31 @@
         <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>18184</v>
+        <v>16791</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
       </c>
       <c r="N17" s="7">
-        <v>18184</v>
+        <v>16791</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7910,7 +8786,7 @@
         <v>200</v>
       </c>
       <c r="I18" s="7">
-        <v>135192</v>
+        <v>126206</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>27</v>
@@ -7925,7 +8801,7 @@
         <v>200</v>
       </c>
       <c r="N18" s="7">
-        <v>135192</v>
+        <v>126206</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>27</v>
@@ -7961,31 +8837,31 @@
         <v>69</v>
       </c>
       <c r="I19" s="7">
-        <v>55709</v>
+        <v>76031</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="M19" s="7">
         <v>69</v>
       </c>
       <c r="N19" s="7">
-        <v>55709</v>
+        <v>76031</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>304</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8010,31 +8886,31 @@
         <v>164</v>
       </c>
       <c r="I20" s="7">
-        <v>97389</v>
+        <v>90609</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="M20" s="7">
         <v>164</v>
       </c>
       <c r="N20" s="7">
-        <v>97389</v>
+        <v>90609</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,31 +8935,31 @@
         <v>166</v>
       </c>
       <c r="I21" s="7">
-        <v>107124</v>
+        <v>99505</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="M21" s="7">
         <v>166</v>
       </c>
       <c r="N21" s="7">
-        <v>107124</v>
+        <v>99505</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8108,31 +8984,31 @@
         <v>101</v>
       </c>
       <c r="I22" s="7">
-        <v>63920</v>
+        <v>60156</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
       </c>
       <c r="N22" s="7">
-        <v>63920</v>
+        <v>60156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,7 +9033,7 @@
         <v>500</v>
       </c>
       <c r="I23" s="7">
-        <v>324142</v>
+        <v>326301</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -8172,7 +9048,7 @@
         <v>500</v>
       </c>
       <c r="N23" s="7">
-        <v>324142</v>
+        <v>326301</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -8208,31 +9084,31 @@
         <v>86</v>
       </c>
       <c r="I24" s="7">
-        <v>53250</v>
+        <v>49103</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>255</v>
+        <v>349</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
       </c>
       <c r="N24" s="7">
-        <v>53250</v>
+        <v>49103</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>255</v>
+        <v>349</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8257,31 +9133,31 @@
         <v>252</v>
       </c>
       <c r="I25" s="7">
-        <v>144197</v>
+        <v>133483</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="M25" s="7">
         <v>252</v>
       </c>
       <c r="N25" s="7">
-        <v>144197</v>
+        <v>133483</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8306,31 +9182,31 @@
         <v>177</v>
       </c>
       <c r="I26" s="7">
-        <v>102948</v>
+        <v>93779</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="M26" s="7">
         <v>177</v>
       </c>
       <c r="N26" s="7">
-        <v>102948</v>
+        <v>93779</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8355,31 +9231,31 @@
         <v>82</v>
       </c>
       <c r="I27" s="7">
-        <v>48101</v>
+        <v>45184</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="M27" s="7">
         <v>82</v>
       </c>
       <c r="N27" s="7">
-        <v>48101</v>
+        <v>45184</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8404,7 +9280,7 @@
         <v>597</v>
       </c>
       <c r="I28" s="7">
-        <v>348496</v>
+        <v>321549</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>27</v>
@@ -8419,7 +9295,7 @@
         <v>597</v>
       </c>
       <c r="N28" s="7">
-        <v>348496</v>
+        <v>321549</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>27</v>
@@ -8452,34 +9328,34 @@
         <v>11</v>
       </c>
       <c r="H29" s="7">
-        <v>643</v>
+        <v>180</v>
       </c>
       <c r="I29" s="7">
-        <v>334186</v>
+        <v>86902</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="M29" s="7">
-        <v>643</v>
+        <v>180</v>
       </c>
       <c r="N29" s="7">
-        <v>334186</v>
+        <v>86902</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8501,34 +9377,34 @@
         <v>11</v>
       </c>
       <c r="H30" s="7">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="I30" s="7">
-        <v>257720</v>
+        <v>308916</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="M30" s="7">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="N30" s="7">
-        <v>257720</v>
+        <v>308916</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8550,34 +9426,34 @@
         <v>11</v>
       </c>
       <c r="H31" s="7">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="I31" s="7">
-        <v>70078</v>
+        <v>53182</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="M31" s="7">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="N31" s="7">
-        <v>70078</v>
+        <v>53182</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8599,34 +9475,34 @@
         <v>11</v>
       </c>
       <c r="H32" s="7">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I32" s="7">
-        <v>30181</v>
+        <v>25938</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="M32" s="7">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N32" s="7">
-        <v>30181</v>
+        <v>25938</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8648,10 +9524,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="7">
-        <v>1099</v>
+        <v>559</v>
       </c>
       <c r="I33" s="7">
-        <v>692165</v>
+        <v>474938</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>27</v>
@@ -8663,10 +9539,10 @@
         <v>27</v>
       </c>
       <c r="M33" s="7">
-        <v>1099</v>
+        <v>559</v>
       </c>
       <c r="N33" s="7">
-        <v>692165</v>
+        <v>474938</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>27</v>
@@ -8680,7 +9556,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -8699,34 +9575,34 @@
         <v>11</v>
       </c>
       <c r="H34" s="7">
-        <v>867</v>
+        <v>463</v>
       </c>
       <c r="I34" s="7">
-        <v>498313</v>
+        <v>217190</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>214</v>
+        <v>372</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="M34" s="7">
-        <v>867</v>
+        <v>463</v>
       </c>
       <c r="N34" s="7">
-        <v>498313</v>
+        <v>217190</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>214</v>
+        <v>372</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8748,34 +9624,34 @@
         <v>11</v>
       </c>
       <c r="H35" s="7">
-        <v>765</v>
+        <v>53</v>
       </c>
       <c r="I35" s="7">
-        <v>562797</v>
+        <v>27853</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="M35" s="7">
-        <v>765</v>
+        <v>53</v>
       </c>
       <c r="N35" s="7">
-        <v>562797</v>
+        <v>27853</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8797,34 +9673,34 @@
         <v>11</v>
       </c>
       <c r="H36" s="7">
-        <v>548</v>
+        <v>19</v>
       </c>
       <c r="I36" s="7">
-        <v>339034</v>
+        <v>10356</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="M36" s="7">
-        <v>548</v>
+        <v>19</v>
       </c>
       <c r="N36" s="7">
-        <v>339034</v>
+        <v>10356</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8846,34 +9722,34 @@
         <v>11</v>
       </c>
       <c r="H37" s="7">
-        <v>279</v>
+        <v>5</v>
       </c>
       <c r="I37" s="7">
-        <v>177837</v>
+        <v>2181</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="M37" s="7">
-        <v>279</v>
+        <v>5</v>
       </c>
       <c r="N37" s="7">
-        <v>177837</v>
+        <v>2181</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8895,48 +9771,296 @@
         <v>11</v>
       </c>
       <c r="H38" s="7">
+        <v>540</v>
+      </c>
+      <c r="I38" s="7">
+        <v>257580</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="7">
+        <v>540</v>
+      </c>
+      <c r="N38" s="7">
+        <v>257580</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="7">
+        <v>867</v>
+      </c>
+      <c r="I39" s="7">
+        <v>481689</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="M39" s="7">
+        <v>867</v>
+      </c>
+      <c r="N39" s="7">
+        <v>481689</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="7">
+        <v>765</v>
+      </c>
+      <c r="I40" s="7">
+        <v>620565</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="M40" s="7">
+        <v>765</v>
+      </c>
+      <c r="N40" s="7">
+        <v>620565</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="7">
+        <v>548</v>
+      </c>
+      <c r="I41" s="7">
+        <v>309699</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="M41" s="7">
+        <v>548</v>
+      </c>
+      <c r="N41" s="7">
+        <v>309699</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="7">
+        <v>279</v>
+      </c>
+      <c r="I42" s="7">
+        <v>166496</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M42" s="7">
+        <v>279</v>
+      </c>
+      <c r="N42" s="7">
+        <v>166496</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="7">
         <v>2459</v>
       </c>
-      <c r="I38" s="7">
-        <v>1577981</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>1578449</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="7">
         <v>2459</v>
       </c>
-      <c r="N38" s="7">
-        <v>1577981</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>104</v>
+      <c r="N43" s="7">
+        <v>1578449</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
